--- a/testing/AvantisChannelListTesting.xlsx
+++ b/testing/AvantisChannelListTesting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="448">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -35,19 +35,19 @@
     <t xml:space="preserve">Color</t>
   </si>
   <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Socket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phantom</t>
+    <t xml:space="preserve">Source*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Socket*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pad*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom*</t>
   </si>
   <si>
     <t xml:space="preserve">Mute</t>
@@ -569,6 +569,24 @@
     <t xml:space="preserve">FX Return Color</t>
   </si>
   <si>
+    <t xml:space="preserve">UFX Send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Return Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFX Return Color</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dca1</t>
   </si>
   <si>
@@ -599,6 +617,12 @@
     <t xml:space="preserve">FxRet1</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dca2</t>
   </si>
   <si>
@@ -629,6 +653,12 @@
     <t xml:space="preserve">FxRet2</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dca3</t>
   </si>
   <si>
@@ -659,6 +689,12 @@
     <t xml:space="preserve">FxRet3</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dca4</t>
   </si>
   <si>
@@ -689,6 +725,12 @@
     <t xml:space="preserve">FxRet4</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dca5</t>
   </si>
   <si>
@@ -719,6 +761,12 @@
     <t xml:space="preserve">FxRet5</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dca6</t>
   </si>
   <si>
@@ -749,6 +797,12 @@
     <t xml:space="preserve">FxRet6</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dca7</t>
   </si>
   <si>
@@ -782,6 +836,12 @@
     <t xml:space="preserve">FxRet7</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dca8</t>
   </si>
   <si>
@@ -815,6 +875,12 @@
     <t xml:space="preserve">FxRet8</t>
   </si>
   <si>
+    <t xml:space="preserve">UFx8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UFxRet8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dca9</t>
   </si>
   <si>
@@ -956,15 +1022,6 @@
     <t xml:space="preserve">StMtx13</t>
   </si>
   <si>
-    <t xml:space="preserve">Fx13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StFx13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FxRet13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dca14</t>
   </si>
   <si>
@@ -986,15 +1043,6 @@
     <t xml:space="preserve">StMtx14</t>
   </si>
   <si>
-    <t xml:space="preserve">Fx14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StFx14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FxRet14</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dca15</t>
   </si>
   <si>
@@ -1016,15 +1064,6 @@
     <t xml:space="preserve">StMtx15</t>
   </si>
   <si>
-    <t xml:space="preserve">Fx15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StFx15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FxRet15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dca16</t>
   </si>
   <si>
@@ -1046,18 +1085,6 @@
     <t xml:space="preserve">StMtx16</t>
   </si>
   <si>
-    <t xml:space="preserve">Fx16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StFx16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FxRet16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dca17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux17</t>
   </si>
   <si>
@@ -1076,9 +1103,6 @@
     <t xml:space="preserve">StMtx17</t>
   </si>
   <si>
-    <t xml:space="preserve">Dca18</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux18</t>
   </si>
   <si>
@@ -1097,9 +1121,6 @@
     <t xml:space="preserve">StMtx18</t>
   </si>
   <si>
-    <t xml:space="preserve">Dca19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux19</t>
   </si>
   <si>
@@ -1118,9 +1139,6 @@
     <t xml:space="preserve">StMtx19</t>
   </si>
   <si>
-    <t xml:space="preserve">Dca20</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux20</t>
   </si>
   <si>
@@ -1139,216 +1157,105 @@
     <t xml:space="preserve">StMtx20</t>
   </si>
   <si>
-    <t xml:space="preserve">Dca21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux21</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp21</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp21</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx21</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dca22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux22</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp22</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp22</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx22</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dca23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux23</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp23</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp23</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx23</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dca24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux24</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp24</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx24</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux25</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp25</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx25</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx25</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux26</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp26</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx26</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx26</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux27</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp27</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx27</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx27</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux28</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp28</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx28</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx28</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux29</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp29</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx29</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux30</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp30</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx30</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux31</t>
   </si>
   <si>
-    <t xml:space="preserve">StAux31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grp31</t>
   </si>
   <si>
-    <t xml:space="preserve">StGrp31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mtx31</t>
   </si>
   <si>
-    <t xml:space="preserve">StMtx31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aux32</t>
   </si>
   <si>
@@ -1428,204 +1335,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mtx40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aux62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grp62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtx62</t>
   </si>
   <si>
     <t xml:space="preserve">Mono</t>
@@ -1856,7 +1565,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1981,10 +1690,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2030,59 +1735,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6D9F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF558ED5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -2400,35 +2053,35 @@
       </c>
       <c r="AH1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA17 - ",Groups!B18)</f>
-        <v>DCA17 - Dca17</v>
+        <v>DCA17 - </v>
       </c>
       <c r="AI1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA18 - ",Groups!B19)</f>
-        <v>DCA18 - Dca18</v>
+        <v>DCA18 - </v>
       </c>
       <c r="AJ1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA19 - ",Groups!B20)</f>
-        <v>DCA19 - Dca19</v>
+        <v>DCA19 - </v>
       </c>
       <c r="AK1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA20 - ",Groups!B21)</f>
-        <v>DCA20 - Dca20</v>
+        <v>DCA20 - </v>
       </c>
       <c r="AL1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA21 - ",Groups!B22)</f>
-        <v>DCA21 - Dca21</v>
+        <v>DCA21 - </v>
       </c>
       <c r="AM1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA22 - ",Groups!B23)</f>
-        <v>DCA22 - Dca22</v>
+        <v>DCA22 - </v>
       </c>
       <c r="AN1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA23 - ",Groups!B24)</f>
-        <v>DCA23 - Dca23</v>
+        <v>DCA23 - </v>
       </c>
       <c r="AO1" s="9" t="str">
         <f aca="false">CONCATENATE("DCA24 - ",Groups!B25)</f>
-        <v>DCA24 - Dca24</v>
+        <v>DCA24 - </v>
       </c>
       <c r="AQ1" s="9" t="s">
         <v>15</v>
@@ -17702,7 +17355,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AU73"/>
+  <dimension ref="A1:BC82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17744,6 +17397,9 @@
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="43" min="43" style="3" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="3" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="3" width="16.14"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="53" min="49" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="54" min="54" style="0" width="17.7"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="55" min="55" style="0" width="17.34"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17850,13 +17506,31 @@
       <c r="AU1" s="25" t="s">
         <v>179</v>
       </c>
+      <c r="AW1" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX1" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY1" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA1" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB1" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC1" s="25" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>49</v>
@@ -17865,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>49</v>
@@ -17878,7 +17552,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>49</v>
@@ -17892,7 +17566,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="28" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>49</v>
@@ -17906,7 +17580,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="28" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>49</v>
@@ -17919,7 +17593,7 @@
         <v>1</v>
       </c>
       <c r="Z2" s="28" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AA2" s="11" t="s">
         <v>49</v>
@@ -17933,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="AE2" s="28" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AF2" s="11" t="s">
         <v>49</v>
@@ -17946,7 +17620,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" s="28" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AK2" s="11" t="s">
         <v>49</v>
@@ -17960,7 +17634,7 @@
         <v>1</v>
       </c>
       <c r="AO2" s="28" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AP2" s="11" t="s">
         <v>49</v>
@@ -17974,9 +17648,28 @@
         <v>1</v>
       </c>
       <c r="AT2" s="28" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AU2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC2" s="11" t="s">
         <v>49</v>
       </c>
     </row>
@@ -17985,7 +17678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>67</v>
@@ -17994,7 +17687,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>67</v>
@@ -18007,7 +17700,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L3" s="11" t="s">
         <v>67</v>
@@ -18021,7 +17714,7 @@
         <v>2</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>67</v>
@@ -18035,7 +17728,7 @@
         <v>2</v>
       </c>
       <c r="U3" s="28" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>67</v>
@@ -18048,7 +17741,7 @@
         <v>2</v>
       </c>
       <c r="Z3" s="28" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AA3" s="11" t="s">
         <v>67</v>
@@ -18062,7 +17755,7 @@
         <v>2</v>
       </c>
       <c r="AE3" s="28" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AF3" s="11" t="s">
         <v>67</v>
@@ -18075,7 +17768,7 @@
         <v>2</v>
       </c>
       <c r="AJ3" s="28" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="AK3" s="11" t="s">
         <v>67</v>
@@ -18089,7 +17782,7 @@
         <v>2</v>
       </c>
       <c r="AO3" s="28" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AP3" s="11" t="s">
         <v>67</v>
@@ -18103,9 +17796,28 @@
         <v>2</v>
       </c>
       <c r="AT3" s="28" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AU3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AY3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC3" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -18114,7 +17826,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>80</v>
@@ -18123,7 +17835,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>80</v>
@@ -18136,7 +17848,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="L4" s="11" t="s">
         <v>80</v>
@@ -18150,7 +17862,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="28" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>80</v>
@@ -18164,7 +17876,7 @@
         <v>3</v>
       </c>
       <c r="U4" s="28" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="V4" s="11" t="s">
         <v>80</v>
@@ -18177,7 +17889,7 @@
         <v>3</v>
       </c>
       <c r="Z4" s="28" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="AA4" s="11" t="s">
         <v>80</v>
@@ -18191,7 +17903,7 @@
         <v>3</v>
       </c>
       <c r="AE4" s="28" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="AF4" s="11" t="s">
         <v>80</v>
@@ -18204,7 +17916,7 @@
         <v>3</v>
       </c>
       <c r="AJ4" s="28" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AK4" s="11" t="s">
         <v>80</v>
@@ -18218,7 +17930,7 @@
         <v>3</v>
       </c>
       <c r="AO4" s="28" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="AP4" s="11" t="s">
         <v>80</v>
@@ -18232,9 +17944,28 @@
         <v>3</v>
       </c>
       <c r="AT4" s="28" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AU4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW4" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX4" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="AY4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC4" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -18243,7 +17974,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>93</v>
@@ -18252,7 +17983,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>93</v>
@@ -18265,7 +17996,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>93</v>
@@ -18279,7 +18010,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="28" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="11" t="s">
         <v>93</v>
@@ -18293,7 +18024,7 @@
         <v>4</v>
       </c>
       <c r="U5" s="28" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="V5" s="11" t="s">
         <v>93</v>
@@ -18306,7 +18037,7 @@
         <v>4</v>
       </c>
       <c r="Z5" s="28" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AA5" s="11" t="s">
         <v>93</v>
@@ -18320,7 +18051,7 @@
         <v>4</v>
       </c>
       <c r="AE5" s="28" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AF5" s="11" t="s">
         <v>93</v>
@@ -18333,7 +18064,7 @@
         <v>4</v>
       </c>
       <c r="AJ5" s="28" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AK5" s="11" t="s">
         <v>93</v>
@@ -18347,7 +18078,7 @@
         <v>4</v>
       </c>
       <c r="AO5" s="28" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AP5" s="11" t="s">
         <v>93</v>
@@ -18361,9 +18092,28 @@
         <v>4</v>
       </c>
       <c r="AT5" s="28" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="AU5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB5" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC5" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -18372,7 +18122,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>106</v>
@@ -18381,7 +18131,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>106</v>
@@ -18394,7 +18144,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>106</v>
@@ -18408,7 +18158,7 @@
         <v>5</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="Q6" s="11" t="s">
         <v>106</v>
@@ -18422,7 +18172,7 @@
         <v>5</v>
       </c>
       <c r="U6" s="28" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="V6" s="11" t="s">
         <v>106</v>
@@ -18435,7 +18185,7 @@
         <v>5</v>
       </c>
       <c r="Z6" s="28" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="AA6" s="11" t="s">
         <v>106</v>
@@ -18449,7 +18199,7 @@
         <v>5</v>
       </c>
       <c r="AE6" s="28" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="AF6" s="11" t="s">
         <v>106</v>
@@ -18462,7 +18212,7 @@
         <v>5</v>
       </c>
       <c r="AJ6" s="28" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="AK6" s="11" t="s">
         <v>106</v>
@@ -18476,7 +18226,7 @@
         <v>5</v>
       </c>
       <c r="AO6" s="28" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="AP6" s="11" t="s">
         <v>106</v>
@@ -18490,9 +18240,28 @@
         <v>5</v>
       </c>
       <c r="AT6" s="28" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AU6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="AY6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB6" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="BC6" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -18501,7 +18270,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>121</v>
@@ -18511,7 +18280,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="G7" s="30" t="s">
         <v>121</v>
@@ -18524,7 +18293,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="L7" s="30" t="s">
         <v>121</v>
@@ -18538,7 +18307,7 @@
         <v>6</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="30" t="s">
         <v>121</v>
@@ -18552,7 +18321,7 @@
         <v>6</v>
       </c>
       <c r="U7" s="28" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="V7" s="30" t="s">
         <v>121</v>
@@ -18565,7 +18334,7 @@
         <v>6</v>
       </c>
       <c r="Z7" s="28" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="AA7" s="30" t="s">
         <v>121</v>
@@ -18579,7 +18348,7 @@
         <v>6</v>
       </c>
       <c r="AE7" s="28" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="AF7" s="30" t="s">
         <v>121</v>
@@ -18592,7 +18361,7 @@
         <v>6</v>
       </c>
       <c r="AJ7" s="28" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="AK7" s="30" t="s">
         <v>121</v>
@@ -18606,7 +18375,7 @@
         <v>6</v>
       </c>
       <c r="AO7" s="28" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="AP7" s="30" t="s">
         <v>121</v>
@@ -18620,9 +18389,28 @@
         <v>6</v>
       </c>
       <c r="AT7" s="28" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="AU7" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW7" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX7" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="AY7" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB7" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC7" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -18631,19 +18419,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E8" s="26" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="H8" s="2" t="n">
         <f aca="false">IF(F8&lt;&gt;CONCATENATE("Aux",E8),1,0)</f>
@@ -18653,10 +18441,10 @@
         <v>7</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="M8" s="2" t="n">
         <f aca="false">IF(K8&lt;&gt;CONCATENATE("STAux",J8),1,0)</f>
@@ -18667,10 +18455,10 @@
         <v>7</v>
       </c>
       <c r="P8" s="28" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="R8" s="29" t="n">
         <f aca="false">IF(P8&lt;&gt;CONCATENATE("Grp",O8),1,0)</f>
@@ -18681,10 +18469,10 @@
         <v>7</v>
       </c>
       <c r="U8" s="28" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="V8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="W8" s="2" t="n">
         <f aca="false">IF(U8&lt;&gt;CONCATENATE("StGrp",T8),1,0)</f>
@@ -18694,10 +18482,10 @@
         <v>7</v>
       </c>
       <c r="Z8" s="28" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="AA8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AB8" s="2" t="n">
         <f aca="false">IF(Z8&lt;&gt;CONCATENATE("Mtx",Y8),1,0)</f>
@@ -18708,10 +18496,10 @@
         <v>7</v>
       </c>
       <c r="AE8" s="28" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AF8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AG8" s="2" t="n">
         <f aca="false">IF(AE8&lt;&gt;CONCATENATE("StMtx",AD8),1,0)</f>
@@ -18721,10 +18509,10 @@
         <v>7</v>
       </c>
       <c r="AJ8" s="28" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="AK8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AL8" s="2" t="n">
         <f aca="false">IF(AJ8&lt;&gt;CONCATENATE("Fx",AI8),1,0)</f>
@@ -18735,10 +18523,10 @@
         <v>7</v>
       </c>
       <c r="AO8" s="28" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="AP8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AQ8" s="2" t="n">
         <f aca="false">IF(AO8&lt;&gt;CONCATENATE("StFx",AN8),1,0)</f>
@@ -18749,10 +18537,29 @@
         <v>7</v>
       </c>
       <c r="AT8" s="28" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="AU8" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
+      </c>
+      <c r="AW8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="AY8" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB8" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="BC8" s="30" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18760,19 +18567,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="E9" s="26" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">IF(F9&lt;&gt;CONCATENATE("Aux",E9),1,0)</f>
@@ -18782,10 +18589,10 @@
         <v>8</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M9" s="2" t="n">
         <f aca="false">IF(K9&lt;&gt;CONCATENATE("STAux",J9),1,0)</f>
@@ -18796,10 +18603,10 @@
         <v>8</v>
       </c>
       <c r="P9" s="28" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="R9" s="29" t="n">
         <f aca="false">IF(P9&lt;&gt;CONCATENATE("Grp",O9),1,0)</f>
@@ -18810,10 +18617,10 @@
         <v>8</v>
       </c>
       <c r="U9" s="28" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="V9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="W9" s="2" t="n">
         <f aca="false">IF(U9&lt;&gt;CONCATENATE("StGrp",T9),1,0)</f>
@@ -18823,10 +18630,10 @@
         <v>8</v>
       </c>
       <c r="Z9" s="28" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="AA9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AB9" s="2" t="n">
         <f aca="false">IF(Z9&lt;&gt;CONCATENATE("Mtx",Y9),1,0)</f>
@@ -18837,10 +18644,10 @@
         <v>8</v>
       </c>
       <c r="AE9" s="28" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="AF9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AG9" s="2" t="n">
         <f aca="false">IF(AE9&lt;&gt;CONCATENATE("StMtx",AD9),1,0)</f>
@@ -18850,10 +18657,10 @@
         <v>8</v>
       </c>
       <c r="AJ9" s="28" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="AK9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AL9" s="2" t="n">
         <f aca="false">IF(AJ9&lt;&gt;CONCATENATE("Fx",AI9),1,0)</f>
@@ -18864,10 +18671,10 @@
         <v>8</v>
       </c>
       <c r="AO9" s="28" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="AP9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AQ9" s="2" t="n">
         <f aca="false">IF(AO9&lt;&gt;CONCATENATE("StFx",AN9),1,0)</f>
@@ -18878,10 +18685,29 @@
         <v>8</v>
       </c>
       <c r="AT9" s="28" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="AU9" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
+      </c>
+      <c r="AW9" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX9" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="AY9" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB9" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="BC9" s="30" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18889,7 +18715,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>49</v>
@@ -18898,7 +18724,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="G10" s="30" t="s">
         <v>49</v>
@@ -18911,7 +18737,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="L10" s="30" t="s">
         <v>49</v>
@@ -18925,7 +18751,7 @@
         <v>9</v>
       </c>
       <c r="P10" s="28" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="30" t="s">
         <v>49</v>
@@ -18939,7 +18765,7 @@
         <v>9</v>
       </c>
       <c r="U10" s="28" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="V10" s="30" t="s">
         <v>49</v>
@@ -18952,7 +18778,7 @@
         <v>9</v>
       </c>
       <c r="Z10" s="28" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="AA10" s="30" t="s">
         <v>49</v>
@@ -18966,7 +18792,7 @@
         <v>9</v>
       </c>
       <c r="AE10" s="28" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="AF10" s="30" t="s">
         <v>49</v>
@@ -18979,7 +18805,7 @@
         <v>9</v>
       </c>
       <c r="AJ10" s="28" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="AK10" s="30" t="s">
         <v>49</v>
@@ -18993,7 +18819,7 @@
         <v>9</v>
       </c>
       <c r="AO10" s="28" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="AP10" s="30" t="s">
         <v>49</v>
@@ -19007,7 +18833,7 @@
         <v>9</v>
       </c>
       <c r="AT10" s="28" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="AU10" s="30" t="s">
         <v>49</v>
@@ -19018,7 +18844,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>67</v>
@@ -19027,7 +18853,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>67</v>
@@ -19040,7 +18866,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="L11" s="30" t="s">
         <v>67</v>
@@ -19054,7 +18880,7 @@
         <v>10</v>
       </c>
       <c r="P11" s="28" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="30" t="s">
         <v>67</v>
@@ -19068,7 +18894,7 @@
         <v>10</v>
       </c>
       <c r="U11" s="28" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="V11" s="30" t="s">
         <v>67</v>
@@ -19081,7 +18907,7 @@
         <v>10</v>
       </c>
       <c r="Z11" s="28" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AA11" s="30" t="s">
         <v>67</v>
@@ -19095,7 +18921,7 @@
         <v>10</v>
       </c>
       <c r="AE11" s="28" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="AF11" s="30" t="s">
         <v>67</v>
@@ -19108,7 +18934,7 @@
         <v>10</v>
       </c>
       <c r="AJ11" s="28" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="AK11" s="30" t="s">
         <v>67</v>
@@ -19122,7 +18948,7 @@
         <v>10</v>
       </c>
       <c r="AO11" s="28" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="AP11" s="30" t="s">
         <v>67</v>
@@ -19136,7 +18962,7 @@
         <v>10</v>
       </c>
       <c r="AT11" s="28" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="AU11" s="30" t="s">
         <v>67</v>
@@ -19147,7 +18973,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>80</v>
@@ -19156,7 +18982,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="G12" s="30" t="s">
         <v>80</v>
@@ -19169,7 +18995,7 @@
         <v>11</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="L12" s="30" t="s">
         <v>80</v>
@@ -19183,7 +19009,7 @@
         <v>11</v>
       </c>
       <c r="P12" s="28" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="30" t="s">
         <v>80</v>
@@ -19197,7 +19023,7 @@
         <v>11</v>
       </c>
       <c r="U12" s="28" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="V12" s="30" t="s">
         <v>80</v>
@@ -19210,7 +19036,7 @@
         <v>11</v>
       </c>
       <c r="Z12" s="28" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="AA12" s="30" t="s">
         <v>80</v>
@@ -19224,7 +19050,7 @@
         <v>11</v>
       </c>
       <c r="AE12" s="28" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="AF12" s="30" t="s">
         <v>80</v>
@@ -19237,7 +19063,7 @@
         <v>11</v>
       </c>
       <c r="AJ12" s="28" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="AK12" s="30" t="s">
         <v>80</v>
@@ -19251,7 +19077,7 @@
         <v>11</v>
       </c>
       <c r="AO12" s="28" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="AP12" s="30" t="s">
         <v>80</v>
@@ -19265,7 +19091,7 @@
         <v>11</v>
       </c>
       <c r="AT12" s="28" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="AU12" s="30" t="s">
         <v>80</v>
@@ -19276,7 +19102,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>93</v>
@@ -19285,7 +19111,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>93</v>
@@ -19298,7 +19124,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="L13" s="30" t="s">
         <v>93</v>
@@ -19312,7 +19138,7 @@
         <v>12</v>
       </c>
       <c r="P13" s="28" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="30" t="s">
         <v>93</v>
@@ -19326,7 +19152,7 @@
         <v>12</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="V13" s="30" t="s">
         <v>93</v>
@@ -19339,7 +19165,7 @@
         <v>12</v>
       </c>
       <c r="Z13" s="28" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AA13" s="30" t="s">
         <v>93</v>
@@ -19353,7 +19179,7 @@
         <v>12</v>
       </c>
       <c r="AE13" s="28" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="AF13" s="30" t="s">
         <v>93</v>
@@ -19366,7 +19192,7 @@
         <v>12</v>
       </c>
       <c r="AJ13" s="28" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="AK13" s="30" t="s">
         <v>93</v>
@@ -19380,7 +19206,7 @@
         <v>12</v>
       </c>
       <c r="AO13" s="28" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AP13" s="30" t="s">
         <v>93</v>
@@ -19394,7 +19220,7 @@
         <v>12</v>
       </c>
       <c r="AT13" s="28" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AU13" s="30" t="s">
         <v>93</v>
@@ -19405,7 +19231,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>106</v>
@@ -19414,7 +19240,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>106</v>
@@ -19427,7 +19253,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="L14" s="30" t="s">
         <v>106</v>
@@ -19441,7 +19267,7 @@
         <v>13</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="30" t="s">
         <v>106</v>
@@ -19455,7 +19281,7 @@
         <v>13</v>
       </c>
       <c r="U14" s="28" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="V14" s="30" t="s">
         <v>106</v>
@@ -19468,7 +19294,7 @@
         <v>13</v>
       </c>
       <c r="Z14" s="28" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="AA14" s="30" t="s">
         <v>106</v>
@@ -19482,7 +19308,7 @@
         <v>13</v>
       </c>
       <c r="AE14" s="28" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="AF14" s="30" t="s">
         <v>106</v>
@@ -19491,50 +19317,32 @@
         <f aca="false">IF(AE14&lt;&gt;CONCATENATE("StMtx",AD14),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK14" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="11"/>
       <c r="AL14" s="2" t="n">
         <f aca="false">IF(AJ14&lt;&gt;CONCATENATE("Fx",AI14),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="2"/>
-      <c r="AN14" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO14" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP14" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="11"/>
       <c r="AQ14" s="2" t="n">
         <f aca="false">IF(AO14&lt;&gt;CONCATENATE("StFx",AN14),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="2"/>
-      <c r="AS14" s="26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT14" s="28" t="s">
-        <v>311</v>
-      </c>
-      <c r="AU14" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>121</v>
@@ -19543,7 +19351,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="G15" s="30" t="s">
         <v>121</v>
@@ -19556,7 +19364,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="L15" s="30" t="s">
         <v>121</v>
@@ -19570,7 +19378,7 @@
         <v>14</v>
       </c>
       <c r="P15" s="28" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="Q15" s="30" t="s">
         <v>121</v>
@@ -19584,7 +19392,7 @@
         <v>14</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="V15" s="30" t="s">
         <v>121</v>
@@ -19597,7 +19405,7 @@
         <v>14</v>
       </c>
       <c r="Z15" s="28" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="AA15" s="30" t="s">
         <v>121</v>
@@ -19611,7 +19419,7 @@
         <v>14</v>
       </c>
       <c r="AE15" s="28" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="AF15" s="30" t="s">
         <v>121</v>
@@ -19620,62 +19428,43 @@
         <f aca="false">IF(AE15&lt;&gt;CONCATENATE("StMtx",AD15),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ15" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="AK15" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="11"/>
       <c r="AL15" s="2" t="n">
         <f aca="false">IF(AJ15&lt;&gt;CONCATENATE("Fx",AI15),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="2"/>
-      <c r="AN15" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO15" s="28" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP15" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="11"/>
       <c r="AQ15" s="2" t="n">
         <f aca="false">IF(AO15&lt;&gt;CONCATENATE("StFx",AN15),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" s="2"/>
-      <c r="AS15" s="26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT15" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="AU15" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="AS15" s="2"/>
+      <c r="AU15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E16" s="26" t="n">
         <v>15</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="H16" s="2" t="n">
         <f aca="false">IF(F16&lt;&gt;CONCATENATE("Aux",E16),1,0)</f>
@@ -19685,10 +19474,10 @@
         <v>15</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="M16" s="2" t="n">
         <f aca="false">IF(K16&lt;&gt;CONCATENATE("STAux",J16),1,0)</f>
@@ -19699,10 +19488,10 @@
         <v>15</v>
       </c>
       <c r="P16" s="28" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="R16" s="29" t="n">
         <f aca="false">IF(P16&lt;&gt;CONCATENATE("Grp",O16),1,0)</f>
@@ -19713,10 +19502,10 @@
         <v>15</v>
       </c>
       <c r="U16" s="28" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="V16" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="W16" s="2" t="n">
         <f aca="false">IF(U16&lt;&gt;CONCATENATE("StGrp",T16),1,0)</f>
@@ -19726,10 +19515,10 @@
         <v>15</v>
       </c>
       <c r="Z16" s="28" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="AA16" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AB16" s="2" t="n">
         <f aca="false">IF(Z16&lt;&gt;CONCATENATE("Mtx",Y16),1,0)</f>
@@ -19740,71 +19529,52 @@
         <v>15</v>
       </c>
       <c r="AE16" s="28" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="AF16" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AG16" s="2" t="n">
         <f aca="false">IF(AE16&lt;&gt;CONCATENATE("StMtx",AD16),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ16" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="AK16" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="11"/>
       <c r="AL16" s="2" t="n">
         <f aca="false">IF(AJ16&lt;&gt;CONCATENATE("Fx",AI16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="2"/>
-      <c r="AN16" s="26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO16" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="AP16" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="11"/>
       <c r="AQ16" s="2" t="n">
         <f aca="false">IF(AO16&lt;&gt;CONCATENATE("StFx",AN16),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="2"/>
-      <c r="AS16" s="26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AT16" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="AU16" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AS16" s="2"/>
+      <c r="AU16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="E17" s="26" t="n">
         <v>16</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H17" s="2" t="n">
         <f aca="false">IF(F17&lt;&gt;CONCATENATE("Aux",E17),1,0)</f>
@@ -19814,10 +19584,10 @@
         <v>16</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="M17" s="2" t="n">
         <f aca="false">IF(K17&lt;&gt;CONCATENATE("STAux",J17),1,0)</f>
@@ -19828,10 +19598,10 @@
         <v>16</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="R17" s="29" t="n">
         <f aca="false">IF(P17&lt;&gt;CONCATENATE("Grp",O17),1,0)</f>
@@ -19842,10 +19612,10 @@
         <v>16</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="W17" s="2" t="n">
         <f aca="false">IF(U17&lt;&gt;CONCATENATE("StGrp",T17),1,0)</f>
@@ -19855,10 +19625,10 @@
         <v>16</v>
       </c>
       <c r="Z17" s="28" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AA17" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AB17" s="2" t="n">
         <f aca="false">IF(Z17&lt;&gt;CONCATENATE("Mtx",Y17),1,0)</f>
@@ -19869,62 +19639,40 @@
         <v>16</v>
       </c>
       <c r="AE17" s="28" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="AF17" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AG17" s="2" t="n">
         <f aca="false">IF(AE17&lt;&gt;CONCATENATE("StMtx",AD17),1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI17" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ17" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK17" s="30"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="11"/>
       <c r="AL17" s="2" t="n">
         <f aca="false">IF(AJ17&lt;&gt;CONCATENATE("Fx",AI17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="2"/>
-      <c r="AN17" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO17" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="AP17" s="30"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="11"/>
       <c r="AQ17" s="2" t="n">
         <f aca="false">IF(AO17&lt;&gt;CONCATENATE("StFx",AN17),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="2"/>
-      <c r="AS17" s="26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT17" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="AU17" s="30"/>
+      <c r="AS17" s="2"/>
+      <c r="AU17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" s="26" t="n">
         <v>17</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>49</v>
@@ -19937,7 +19685,7 @@
         <v>17</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="L18" s="30" t="s">
         <v>49</v>
@@ -19951,7 +19699,7 @@
         <v>17</v>
       </c>
       <c r="P18" s="28" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="Q18" s="30" t="s">
         <v>49</v>
@@ -19965,7 +19713,7 @@
         <v>17</v>
       </c>
       <c r="U18" s="28" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="V18" s="30" t="s">
         <v>49</v>
@@ -19978,7 +19726,7 @@
         <v>17</v>
       </c>
       <c r="Z18" s="28" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AA18" s="30" t="s">
         <v>49</v>
@@ -19992,7 +19740,7 @@
         <v>17</v>
       </c>
       <c r="AE18" s="28" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AF18" s="30" t="s">
         <v>49</v>
@@ -20001,22 +19749,21 @@
         <f aca="false">IF(AE18&lt;&gt;CONCATENATE("StMtx",AD18),1,0)</f>
         <v>0</v>
       </c>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="11"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="11"/>
+      <c r="AS18" s="2"/>
+      <c r="AU18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>67</v>
-      </c>
       <c r="E19" s="26" t="n">
         <v>18</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>67</v>
@@ -20029,7 +19776,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="L19" s="30" t="s">
         <v>67</v>
@@ -20043,7 +19790,7 @@
         <v>18</v>
       </c>
       <c r="P19" s="28" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="30" t="s">
         <v>67</v>
@@ -20057,7 +19804,7 @@
         <v>18</v>
       </c>
       <c r="U19" s="28" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="V19" s="30" t="s">
         <v>67</v>
@@ -20070,7 +19817,7 @@
         <v>18</v>
       </c>
       <c r="Z19" s="28" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AA19" s="30" t="s">
         <v>67</v>
@@ -20084,7 +19831,7 @@
         <v>18</v>
       </c>
       <c r="AE19" s="28" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AF19" s="30" t="s">
         <v>67</v>
@@ -20093,22 +19840,21 @@
         <f aca="false">IF(AE19&lt;&gt;CONCATENATE("StMtx",AD19),1,0)</f>
         <v>0</v>
       </c>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="11"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="11"/>
+      <c r="AS19" s="2"/>
+      <c r="AU19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" s="26" t="n">
         <v>19</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G20" s="30" t="s">
         <v>80</v>
@@ -20121,7 +19867,7 @@
         <v>19</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="L20" s="30" t="s">
         <v>80</v>
@@ -20135,7 +19881,7 @@
         <v>19</v>
       </c>
       <c r="P20" s="28" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="30" t="s">
         <v>80</v>
@@ -20149,7 +19895,7 @@
         <v>19</v>
       </c>
       <c r="U20" s="28" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="V20" s="30" t="s">
         <v>80</v>
@@ -20162,7 +19908,7 @@
         <v>19</v>
       </c>
       <c r="Z20" s="28" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="AA20" s="30" t="s">
         <v>80</v>
@@ -20176,7 +19922,7 @@
         <v>19</v>
       </c>
       <c r="AE20" s="28" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AF20" s="30" t="s">
         <v>80</v>
@@ -20185,22 +19931,21 @@
         <f aca="false">IF(AE20&lt;&gt;CONCATENATE("StMtx",AD20),1,0)</f>
         <v>0</v>
       </c>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="11"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="11"/>
+      <c r="AS20" s="2"/>
+      <c r="AU20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>93</v>
-      </c>
       <c r="E21" s="26" t="n">
         <v>20</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>93</v>
@@ -20213,7 +19958,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L21" s="30" t="s">
         <v>93</v>
@@ -20227,7 +19972,7 @@
         <v>20</v>
       </c>
       <c r="P21" s="28" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q21" s="30" t="s">
         <v>93</v>
@@ -20241,7 +19986,7 @@
         <v>20</v>
       </c>
       <c r="U21" s="28" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="V21" s="30" t="s">
         <v>93</v>
@@ -20254,7 +19999,7 @@
         <v>20</v>
       </c>
       <c r="Z21" s="28" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AA21" s="30" t="s">
         <v>93</v>
@@ -20268,7 +20013,7 @@
         <v>20</v>
       </c>
       <c r="AE21" s="28" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AF21" s="30" t="s">
         <v>93</v>
@@ -20277,22 +20022,21 @@
         <f aca="false">IF(AE21&lt;&gt;CONCATENATE("StMtx",AD21),1,0)</f>
         <v>0</v>
       </c>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="11"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="11"/>
+      <c r="AS21" s="2"/>
+      <c r="AU21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>106</v>
-      </c>
       <c r="E22" s="26" t="n">
         <v>21</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>106</v>
@@ -20301,25 +20045,18 @@
         <f aca="false">IF(F22&lt;&gt;CONCATENATE("Aux",E22),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="L22" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="2" t="n">
         <f aca="false">IF(K22&lt;&gt;CONCATENATE("STAux",J22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="26" t="n">
         <v>21</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="30" t="s">
         <v>106</v>
@@ -20329,24 +20066,17 @@
         <v>0</v>
       </c>
       <c r="S22" s="29"/>
-      <c r="T22" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="U22" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="V22" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="U22" s="31"/>
+      <c r="V22" s="11"/>
       <c r="W22" s="2" t="n">
         <f aca="false">IF(U22&lt;&gt;CONCATENATE("StGrp",T22),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="26" t="n">
         <v>21</v>
       </c>
       <c r="Z22" s="28" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AA22" s="30" t="s">
         <v>106</v>
@@ -20356,35 +20086,27 @@
         <v>0</v>
       </c>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE22" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF22" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="11"/>
       <c r="AG22" s="2" t="n">
         <f aca="false">IF(AE22&lt;&gt;CONCATENATE("StMtx",AD22),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="11"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="11"/>
+      <c r="AS22" s="2"/>
+      <c r="AU22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>121</v>
-      </c>
       <c r="E23" s="26" t="n">
         <v>22</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>121</v>
@@ -20393,18 +20115,10 @@
         <f aca="false">IF(F23&lt;&gt;CONCATENATE("Aux",E23),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="L23" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="L23" s="11"/>
       <c r="M23" s="2" t="n">
         <f aca="false">IF(K23&lt;&gt;CONCATENATE("STAux",J23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="26" t="n">
@@ -20421,24 +20135,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="29"/>
-      <c r="T23" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="V23" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="V23" s="11"/>
       <c r="W23" s="2" t="n">
         <f aca="false">IF(U23&lt;&gt;CONCATENATE("StGrp",T23),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="26" t="n">
         <v>22</v>
       </c>
       <c r="Z23" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA23" s="30" t="s">
         <v>121</v>
@@ -20448,208 +20154,156 @@
         <v>0</v>
       </c>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE23" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF23" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="AF23" s="11"/>
       <c r="AG23" s="2" t="n">
         <f aca="false">IF(AE23&lt;&gt;CONCATENATE("StMtx",AD23),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="11"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="11"/>
+      <c r="AS23" s="2"/>
+      <c r="AU23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>53</v>
-      </c>
       <c r="E24" s="26" t="n">
         <v>23</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="H24" s="2" t="n">
         <f aca="false">IF(F24&lt;&gt;CONCATENATE("Aux",E24),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>241</v>
-      </c>
+      <c r="L24" s="11"/>
       <c r="M24" s="2" t="n">
         <f aca="false">IF(K24&lt;&gt;CONCATENATE("STAux",J24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="26" t="n">
         <v>23</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="R24" s="29" t="n">
         <f aca="false">IF(P24&lt;&gt;CONCATENATE("Grp",O24),1,0)</f>
         <v>0</v>
       </c>
       <c r="S24" s="29"/>
-      <c r="T24" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="U24" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="V24" s="30" t="s">
-        <v>241</v>
-      </c>
+      <c r="V24" s="11"/>
       <c r="W24" s="2" t="n">
         <f aca="false">IF(U24&lt;&gt;CONCATENATE("StGrp",T24),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="26" t="n">
         <v>23</v>
       </c>
       <c r="Z24" s="28" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AA24" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AB24" s="2" t="n">
         <f aca="false">IF(Z24&lt;&gt;CONCATENATE("Mtx",Y24),1,0)</f>
         <v>0</v>
       </c>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE24" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF24" s="30" t="s">
-        <v>241</v>
-      </c>
+      <c r="AF24" s="11"/>
       <c r="AG24" s="2" t="n">
         <f aca="false">IF(AE24&lt;&gt;CONCATENATE("StMtx",AD24),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="3"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="3"/>
+      <c r="AS24" s="2"/>
+      <c r="AU24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="C25" s="30"/>
       <c r="E25" s="26" t="n">
         <v>24</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H25" s="2" t="n">
         <f aca="false">IF(F25&lt;&gt;CONCATENATE("Aux",E25),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="26" t="n">
-        <v>24</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>252</v>
-      </c>
+      <c r="L25" s="11"/>
       <c r="M25" s="2" t="n">
         <f aca="false">IF(K25&lt;&gt;CONCATENATE("STAux",J25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="26" t="n">
         <v>24</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="R25" s="29" t="n">
         <f aca="false">IF(P25&lt;&gt;CONCATENATE("Grp",O25),1,0)</f>
         <v>0</v>
       </c>
       <c r="S25" s="29"/>
-      <c r="T25" s="26" t="n">
-        <v>24</v>
-      </c>
-      <c r="U25" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="V25" s="30" t="s">
-        <v>252</v>
-      </c>
+      <c r="V25" s="11"/>
       <c r="W25" s="2" t="n">
         <f aca="false">IF(U25&lt;&gt;CONCATENATE("StGrp",T25),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="26" t="n">
         <v>24</v>
       </c>
       <c r="Z25" s="28" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AA25" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AB25" s="2" t="n">
         <f aca="false">IF(Z25&lt;&gt;CONCATENATE("Mtx",Y25),1,0)</f>
         <v>0</v>
       </c>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE25" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="AF25" s="30" t="s">
-        <v>252</v>
-      </c>
+      <c r="AF25" s="11"/>
       <c r="AG25" s="2" t="n">
         <f aca="false">IF(AE25&lt;&gt;CONCATENATE("StMtx",AD25),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="3"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="3"/>
+      <c r="AS25" s="2"/>
+      <c r="AU25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="26" t="n">
         <v>25</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>49</v>
@@ -20658,25 +20312,17 @@
         <f aca="false">IF(F26&lt;&gt;CONCATENATE("Aux",E26),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="26" t="n">
-        <v>25</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="L26" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="L26" s="11"/>
       <c r="M26" s="2" t="n">
         <f aca="false">IF(K26&lt;&gt;CONCATENATE("STAux",J26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="26" t="n">
         <v>25</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Q26" s="30" t="s">
         <v>49</v>
@@ -20686,24 +20332,16 @@
         <v>0</v>
       </c>
       <c r="S26" s="29"/>
-      <c r="T26" s="26" t="n">
-        <v>25</v>
-      </c>
-      <c r="U26" s="28" t="s">
-        <v>401</v>
-      </c>
-      <c r="V26" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="V26" s="11"/>
       <c r="W26" s="2" t="n">
         <f aca="false">IF(U26&lt;&gt;CONCATENATE("StGrp",T26),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="26" t="n">
         <v>25</v>
       </c>
       <c r="Z26" s="28" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="AA26" s="30" t="s">
         <v>49</v>
@@ -20713,26 +20351,24 @@
         <v>0</v>
       </c>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE26" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF26" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="AF26" s="11"/>
       <c r="AG26" s="2" t="n">
         <f aca="false">IF(AE26&lt;&gt;CONCATENATE("StMtx",AD26),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="3"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="3"/>
+      <c r="AS26" s="2"/>
+      <c r="AU26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="26" t="n">
         <v>26</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>67</v>
@@ -20741,25 +20377,17 @@
         <f aca="false">IF(F27&lt;&gt;CONCATENATE("Aux",E27),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="26" t="n">
-        <v>26</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="L27" s="11"/>
       <c r="M27" s="2" t="n">
         <f aca="false">IF(K27&lt;&gt;CONCATENATE("STAux",J27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="26" t="n">
         <v>26</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="Q27" s="30" t="s">
         <v>67</v>
@@ -20769,24 +20397,16 @@
         <v>0</v>
       </c>
       <c r="S27" s="29"/>
-      <c r="T27" s="26" t="n">
-        <v>26</v>
-      </c>
-      <c r="U27" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="V27" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="V27" s="11"/>
       <c r="W27" s="2" t="n">
         <f aca="false">IF(U27&lt;&gt;CONCATENATE("StGrp",T27),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" s="26" t="n">
         <v>26</v>
       </c>
       <c r="Z27" s="28" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AA27" s="30" t="s">
         <v>67</v>
@@ -20796,26 +20416,24 @@
         <v>0</v>
       </c>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE27" s="28" t="s">
-        <v>409</v>
-      </c>
-      <c r="AF27" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="AF27" s="11"/>
       <c r="AG27" s="2" t="n">
         <f aca="false">IF(AE27&lt;&gt;CONCATENATE("StMtx",AD27),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="3"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="3"/>
+      <c r="AS27" s="2"/>
+      <c r="AU27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="26" t="n">
         <v>27</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>80</v>
@@ -20824,25 +20442,17 @@
         <f aca="false">IF(F28&lt;&gt;CONCATENATE("Aux",E28),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="26" t="n">
-        <v>27</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>80</v>
-      </c>
+      <c r="L28" s="11"/>
       <c r="M28" s="2" t="n">
         <f aca="false">IF(K28&lt;&gt;CONCATENATE("STAux",J28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="26" t="n">
         <v>27</v>
       </c>
       <c r="P28" s="28" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="Q28" s="30" t="s">
         <v>80</v>
@@ -20852,24 +20462,16 @@
         <v>0</v>
       </c>
       <c r="S28" s="29"/>
-      <c r="T28" s="26" t="n">
-        <v>27</v>
-      </c>
-      <c r="U28" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="V28" s="30" t="s">
-        <v>80</v>
-      </c>
+      <c r="V28" s="11"/>
       <c r="W28" s="2" t="n">
         <f aca="false">IF(U28&lt;&gt;CONCATENATE("StGrp",T28),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="26" t="n">
         <v>27</v>
       </c>
       <c r="Z28" s="28" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="AA28" s="30" t="s">
         <v>80</v>
@@ -20879,26 +20481,24 @@
         <v>0</v>
       </c>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE28" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="AF28" s="30" t="s">
-        <v>80</v>
-      </c>
+      <c r="AF28" s="11"/>
       <c r="AG28" s="2" t="n">
         <f aca="false">IF(AE28&lt;&gt;CONCATENATE("StMtx",AD28),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="3"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="3"/>
+      <c r="AS28" s="2"/>
+      <c r="AU28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="26" t="n">
         <v>28</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>93</v>
@@ -20907,25 +20507,17 @@
         <f aca="false">IF(F29&lt;&gt;CONCATENATE("Aux",E29),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="26" t="n">
-        <v>28</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="L29" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="L29" s="11"/>
       <c r="M29" s="2" t="n">
         <f aca="false">IF(K29&lt;&gt;CONCATENATE("STAux",J29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="26" t="n">
         <v>28</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="Q29" s="30" t="s">
         <v>93</v>
@@ -20935,24 +20527,16 @@
         <v>0</v>
       </c>
       <c r="S29" s="29"/>
-      <c r="T29" s="26" t="n">
-        <v>28</v>
-      </c>
-      <c r="U29" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="V29" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="V29" s="11"/>
       <c r="W29" s="2" t="n">
         <f aca="false">IF(U29&lt;&gt;CONCATENATE("StGrp",T29),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="26" t="n">
         <v>28</v>
       </c>
       <c r="Z29" s="28" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="AA29" s="30" t="s">
         <v>93</v>
@@ -20962,26 +20546,24 @@
         <v>0</v>
       </c>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE29" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF29" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="AF29" s="11"/>
       <c r="AG29" s="2" t="n">
         <f aca="false">IF(AE29&lt;&gt;CONCATENATE("StMtx",AD29),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="3"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="3"/>
+      <c r="AS29" s="2"/>
+      <c r="AU29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="26" t="n">
         <v>29</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>106</v>
@@ -20990,25 +20572,17 @@
         <f aca="false">IF(F30&lt;&gt;CONCATENATE("Aux",E30),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="26" t="n">
-        <v>29</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="L30" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="L30" s="11"/>
       <c r="M30" s="2" t="n">
         <f aca="false">IF(K30&lt;&gt;CONCATENATE("STAux",J30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="26" t="n">
         <v>29</v>
       </c>
       <c r="P30" s="28" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="Q30" s="30" t="s">
         <v>106</v>
@@ -21018,24 +20592,16 @@
         <v>0</v>
       </c>
       <c r="S30" s="29"/>
-      <c r="T30" s="26" t="n">
-        <v>29</v>
-      </c>
-      <c r="U30" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="V30" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="V30" s="11"/>
       <c r="W30" s="2" t="n">
         <f aca="false">IF(U30&lt;&gt;CONCATENATE("StGrp",T30),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" s="26" t="n">
         <v>29</v>
       </c>
       <c r="Z30" s="28" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="AA30" s="30" t="s">
         <v>106</v>
@@ -21045,26 +20611,24 @@
         <v>0</v>
       </c>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE30" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="AF30" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="AF30" s="11"/>
       <c r="AG30" s="2" t="n">
         <f aca="false">IF(AE30&lt;&gt;CONCATENATE("StMtx",AD30),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="3"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="3"/>
+      <c r="AS30" s="2"/>
+      <c r="AU30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="26" t="n">
         <v>30</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>121</v>
@@ -21073,25 +20637,17 @@
         <f aca="false">IF(F31&lt;&gt;CONCATENATE("Aux",E31),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="L31" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="L31" s="11"/>
       <c r="M31" s="2" t="n">
         <f aca="false">IF(K31&lt;&gt;CONCATENATE("STAux",J31),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="26" t="n">
         <v>30</v>
       </c>
       <c r="P31" s="28" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="Q31" s="30" t="s">
         <v>121</v>
@@ -21101,24 +20657,16 @@
         <v>0</v>
       </c>
       <c r="S31" s="29"/>
-      <c r="T31" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="U31" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="V31" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="V31" s="11"/>
       <c r="W31" s="2" t="n">
         <f aca="false">IF(U31&lt;&gt;CONCATENATE("StGrp",T31),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="26" t="n">
         <v>30</v>
       </c>
       <c r="Z31" s="28" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="AA31" s="30" t="s">
         <v>121</v>
@@ -21128,149 +20676,139 @@
         <v>0</v>
       </c>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE31" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="AF31" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="AF31" s="11"/>
       <c r="AG31" s="2" t="n">
         <f aca="false">IF(AE31&lt;&gt;CONCATENATE("StMtx",AD31),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="3"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="3"/>
+      <c r="AS31" s="2"/>
+      <c r="AU31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="26" t="n">
         <v>31</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="H32" s="2" t="n">
         <f aca="false">IF(F32&lt;&gt;CONCATENATE("Aux",E32),1,0)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="26" t="n">
-        <v>31</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="L32" s="30"/>
       <c r="M32" s="2" t="n">
         <f aca="false">IF(K32&lt;&gt;CONCATENATE("STAux",J32),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="26" t="n">
         <v>31</v>
       </c>
       <c r="P32" s="28" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="Q32" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="R32" s="29" t="n">
         <f aca="false">IF(P32&lt;&gt;CONCATENATE("Grp",O32),1,0)</f>
         <v>0</v>
       </c>
       <c r="S32" s="29"/>
-      <c r="T32" s="26" t="n">
-        <v>31</v>
-      </c>
-      <c r="U32" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="V32" s="30"/>
+      <c r="V32" s="0"/>
       <c r="W32" s="2" t="n">
         <f aca="false">IF(U32&lt;&gt;CONCATENATE("StGrp",T32),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" s="26" t="n">
         <v>31</v>
       </c>
       <c r="Z32" s="28" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="AA32" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AB32" s="2" t="n">
         <f aca="false">IF(Z32&lt;&gt;CONCATENATE("Mtx",Y32),1,0)</f>
         <v>0</v>
       </c>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="26" t="n">
-        <v>31</v>
-      </c>
-      <c r="AE32" s="28" t="s">
-        <v>439</v>
-      </c>
-      <c r="AF32" s="30"/>
+      <c r="AF32" s="0"/>
       <c r="AG32" s="2" t="n">
         <f aca="false">IF(AE32&lt;&gt;CONCATENATE("StMtx",AD32),1,0)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="3"/>
+      <c r="AN32" s="2"/>
+      <c r="AO32" s="3"/>
+      <c r="AS32" s="2"/>
+      <c r="AU32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="26" t="n">
         <v>32</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H33" s="2" t="n">
         <f aca="false">IF(F33&lt;&gt;CONCATENATE("Aux",E33),1,0)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="31"/>
       <c r="O33" s="26" t="n">
         <v>32</v>
       </c>
       <c r="P33" s="28" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="Q33" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="R33" s="29" t="n">
         <f aca="false">IF(P33&lt;&gt;CONCATENATE("Grp",O33),1,0)</f>
         <v>0</v>
       </c>
       <c r="S33" s="29"/>
-      <c r="V33" s="31"/>
+      <c r="V33" s="0"/>
       <c r="Y33" s="26" t="n">
         <v>32</v>
       </c>
       <c r="Z33" s="28" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="AA33" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AB33" s="2" t="n">
         <f aca="false">IF(Z33&lt;&gt;CONCATENATE("Mtx",Y33),1,0)</f>
         <v>0</v>
       </c>
       <c r="AC33" s="2"/>
-      <c r="AJ33" s="32"/>
+      <c r="AF33" s="0"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="3"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="3"/>
+      <c r="AS33" s="2"/>
+      <c r="AU33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="26" t="n">
         <v>33</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>49</v>
@@ -21283,7 +20821,7 @@
         <v>33</v>
       </c>
       <c r="P34" s="28" t="s">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="Q34" s="30" t="s">
         <v>49</v>
@@ -21293,11 +20831,12 @@
         <v>0</v>
       </c>
       <c r="S34" s="29"/>
+      <c r="V34" s="0"/>
       <c r="Y34" s="26" t="n">
         <v>33</v>
       </c>
       <c r="Z34" s="28" t="s">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="AA34" s="30" t="s">
         <v>49</v>
@@ -21307,14 +20846,20 @@
         <v>0</v>
       </c>
       <c r="AC34" s="2"/>
-      <c r="AJ34" s="31"/>
+      <c r="AF34" s="0"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="3"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="3"/>
+      <c r="AS34" s="2"/>
+      <c r="AU34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="26" t="n">
         <v>34</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>67</v>
@@ -21327,7 +20872,7 @@
         <v>34</v>
       </c>
       <c r="P35" s="28" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="Q35" s="30" t="s">
         <v>67</v>
@@ -21337,11 +20882,12 @@
         <v>0</v>
       </c>
       <c r="S35" s="29"/>
+      <c r="V35" s="0"/>
       <c r="Y35" s="26" t="n">
         <v>34</v>
       </c>
       <c r="Z35" s="28" t="s">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="AA35" s="30" t="s">
         <v>67</v>
@@ -21351,14 +20897,20 @@
         <v>0</v>
       </c>
       <c r="AC35" s="2"/>
-      <c r="AJ35" s="32"/>
+      <c r="AF35" s="0"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="3"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="3"/>
+      <c r="AS35" s="2"/>
+      <c r="AU35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="26" t="n">
         <v>35</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>80</v>
@@ -21371,7 +20923,7 @@
         <v>35</v>
       </c>
       <c r="P36" s="28" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="Q36" s="30" t="s">
         <v>80</v>
@@ -21381,11 +20933,12 @@
         <v>0</v>
       </c>
       <c r="S36" s="29"/>
+      <c r="V36" s="0"/>
       <c r="Y36" s="26" t="n">
         <v>35</v>
       </c>
       <c r="Z36" s="28" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="AA36" s="30" t="s">
         <v>80</v>
@@ -21395,13 +20948,20 @@
         <v>0</v>
       </c>
       <c r="AC36" s="2"/>
+      <c r="AF36" s="0"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="3"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="3"/>
+      <c r="AS36" s="2"/>
+      <c r="AU36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="26" t="n">
         <v>36</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>452</v>
+        <v>421</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>93</v>
@@ -21414,7 +20974,7 @@
         <v>36</v>
       </c>
       <c r="P37" s="28" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
       <c r="Q37" s="30" t="s">
         <v>93</v>
@@ -21424,11 +20984,12 @@
         <v>0</v>
       </c>
       <c r="S37" s="29"/>
+      <c r="V37" s="0"/>
       <c r="Y37" s="26" t="n">
         <v>36</v>
       </c>
       <c r="Z37" s="28" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="AA37" s="30" t="s">
         <v>93</v>
@@ -21438,13 +20999,20 @@
         <v>0</v>
       </c>
       <c r="AC37" s="2"/>
+      <c r="AF37" s="0"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="3"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="3"/>
+      <c r="AS37" s="2"/>
+      <c r="AU37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="26" t="n">
         <v>37</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>455</v>
+        <v>424</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>106</v>
@@ -21457,7 +21025,7 @@
         <v>37</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="Q38" s="30" t="s">
         <v>106</v>
@@ -21467,11 +21035,12 @@
         <v>0</v>
       </c>
       <c r="S38" s="29"/>
+      <c r="V38" s="0"/>
       <c r="Y38" s="26" t="n">
         <v>37</v>
       </c>
       <c r="Z38" s="28" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="AA38" s="30" t="s">
         <v>106</v>
@@ -21481,13 +21050,20 @@
         <v>0</v>
       </c>
       <c r="AC38" s="2"/>
+      <c r="AF38" s="0"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="3"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="3"/>
+      <c r="AS38" s="2"/>
+      <c r="AU38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="26" t="n">
         <v>38</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>121</v>
@@ -21500,7 +21076,7 @@
         <v>38</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>459</v>
+        <v>428</v>
       </c>
       <c r="Q39" s="30" t="s">
         <v>121</v>
@@ -21510,11 +21086,12 @@
         <v>0</v>
       </c>
       <c r="S39" s="29"/>
+      <c r="V39" s="0"/>
       <c r="Y39" s="26" t="n">
         <v>38</v>
       </c>
       <c r="Z39" s="28" t="s">
-        <v>460</v>
+        <v>429</v>
       </c>
       <c r="AA39" s="30" t="s">
         <v>121</v>
@@ -21524,16 +21101,23 @@
         <v>0</v>
       </c>
       <c r="AC39" s="2"/>
+      <c r="AF39" s="0"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="3"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="3"/>
+      <c r="AS39" s="2"/>
+      <c r="AU39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="26" t="n">
         <v>39</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>461</v>
+        <v>430</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="H40" s="2" t="n">
         <f aca="false">IF(F40&lt;&gt;CONCATENATE("Aux",E40),1,0)</f>
@@ -21543,40 +21127,48 @@
         <v>39</v>
       </c>
       <c r="P40" s="28" t="s">
-        <v>462</v>
+        <v>431</v>
       </c>
       <c r="Q40" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="R40" s="29" t="n">
         <f aca="false">IF(P40&lt;&gt;CONCATENATE("Grp",O40),1,0)</f>
         <v>0</v>
       </c>
       <c r="S40" s="29"/>
+      <c r="V40" s="0"/>
       <c r="Y40" s="26" t="n">
         <v>39</v>
       </c>
       <c r="Z40" s="28" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="AA40" s="30" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="AB40" s="2" t="n">
         <f aca="false">IF(Z40&lt;&gt;CONCATENATE("Mtx",Y40),1,0)</f>
         <v>0</v>
       </c>
       <c r="AC40" s="2"/>
+      <c r="AF40" s="0"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="3"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="3"/>
+      <c r="AS40" s="2"/>
+      <c r="AU40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="26" t="n">
         <v>40</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="H41" s="2" t="n">
         <f aca="false">IF(F41&lt;&gt;CONCATENATE("Aux",E41),1,0)</f>
@@ -21586,1045 +21178,651 @@
         <v>40</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="Q41" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="R41" s="29" t="n">
         <f aca="false">IF(P41&lt;&gt;CONCATENATE("Grp",O41),1,0)</f>
         <v>0</v>
       </c>
       <c r="S41" s="29"/>
+      <c r="V41" s="0"/>
       <c r="Y41" s="26" t="n">
         <v>40</v>
       </c>
       <c r="Z41" s="28" t="s">
-        <v>466</v>
+        <v>435</v>
       </c>
       <c r="AA41" s="30" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AB41" s="2" t="n">
         <f aca="false">IF(Z41&lt;&gt;CONCATENATE("Mtx",Y41),1,0)</f>
         <v>0</v>
       </c>
       <c r="AC41" s="2"/>
+      <c r="AF41" s="0"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="3"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="3"/>
+      <c r="AS41" s="2"/>
+      <c r="AU41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="26" t="n">
-        <v>41</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>467</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="F42" s="31"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="2" t="n">
         <f aca="false">IF(F42&lt;&gt;CONCATENATE("Aux",E42),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="26" t="n">
-        <v>41</v>
-      </c>
-      <c r="P42" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q42" s="30" t="s">
-        <v>49</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="11"/>
       <c r="R42" s="29" t="n">
         <f aca="false">IF(P42&lt;&gt;CONCATENATE("Grp",O42),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42" s="29"/>
-      <c r="Y42" s="26" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z42" s="28" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA42" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="V42" s="0"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="11"/>
       <c r="AB42" s="2" t="n">
         <f aca="false">IF(Z42&lt;&gt;CONCATENATE("Mtx",Y42),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" s="2"/>
+      <c r="AF42" s="0"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="3"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="3"/>
+      <c r="AS42" s="2"/>
+      <c r="AU42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="26" t="n">
-        <v>42</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="G43" s="11"/>
       <c r="H43" s="2" t="n">
         <f aca="false">IF(F43&lt;&gt;CONCATENATE("Aux",E43),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="26" t="n">
-        <v>42</v>
-      </c>
-      <c r="P43" s="28" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q43" s="30" t="s">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="11"/>
       <c r="R43" s="29" t="n">
         <f aca="false">IF(P43&lt;&gt;CONCATENATE("Grp",O43),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="29"/>
-      <c r="Y43" s="26" t="n">
-        <v>42</v>
-      </c>
-      <c r="Z43" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA43" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="V43" s="0"/>
+      <c r="AA43" s="11"/>
       <c r="AB43" s="2" t="n">
         <f aca="false">IF(Z43&lt;&gt;CONCATENATE("Mtx",Y43),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="2"/>
+      <c r="AF43" s="0"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="3"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="3"/>
+      <c r="AS43" s="2"/>
+      <c r="AU43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="26" t="n">
-        <v>43</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>473</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>80</v>
-      </c>
+      <c r="G44" s="11"/>
       <c r="H44" s="2" t="n">
         <f aca="false">IF(F44&lt;&gt;CONCATENATE("Aux",E44),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="26" t="n">
-        <v>43</v>
-      </c>
-      <c r="P44" s="28" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q44" s="30" t="s">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="11"/>
       <c r="R44" s="29" t="n">
         <f aca="false">IF(P44&lt;&gt;CONCATENATE("Grp",O44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="29"/>
-      <c r="Y44" s="26" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z44" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA44" s="30" t="s">
-        <v>80</v>
-      </c>
+      <c r="V44" s="0"/>
+      <c r="AA44" s="11"/>
       <c r="AB44" s="2" t="n">
         <f aca="false">IF(Z44&lt;&gt;CONCATENATE("Mtx",Y44),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" s="2"/>
+      <c r="AF44" s="0"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="3"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="3"/>
+      <c r="AS44" s="2"/>
+      <c r="AU44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="26" t="n">
-        <v>44</v>
-      </c>
-      <c r="F45" s="28" t="s">
-        <v>476</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="G45" s="11"/>
       <c r="H45" s="2" t="n">
         <f aca="false">IF(F45&lt;&gt;CONCATENATE("Aux",E45),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="26" t="n">
-        <v>44</v>
-      </c>
-      <c r="P45" s="28" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q45" s="30" t="s">
-        <v>93</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="11"/>
       <c r="R45" s="29" t="n">
         <f aca="false">IF(P45&lt;&gt;CONCATENATE("Grp",O45),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="29"/>
-      <c r="Y45" s="26" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z45" s="28" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA45" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="V45" s="0"/>
+      <c r="AA45" s="11"/>
       <c r="AB45" s="2" t="n">
         <f aca="false">IF(Z45&lt;&gt;CONCATENATE("Mtx",Y45),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="2"/>
+      <c r="AF45" s="0"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="3"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="3"/>
+      <c r="AS45" s="2"/>
+      <c r="AU45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="26" t="n">
-        <v>45</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>479</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="G46" s="11"/>
       <c r="H46" s="2" t="n">
         <f aca="false">IF(F46&lt;&gt;CONCATENATE("Aux",E46),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="26" t="n">
-        <v>45</v>
-      </c>
-      <c r="P46" s="28" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q46" s="30" t="s">
-        <v>106</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="11"/>
       <c r="R46" s="29" t="n">
         <f aca="false">IF(P46&lt;&gt;CONCATENATE("Grp",O46),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="29"/>
-      <c r="Y46" s="26" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z46" s="28" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA46" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="V46" s="0"/>
+      <c r="AA46" s="11"/>
       <c r="AB46" s="2" t="n">
         <f aca="false">IF(Z46&lt;&gt;CONCATENATE("Mtx",Y46),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="2"/>
+      <c r="AF46" s="0"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="3"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="3"/>
+      <c r="AS46" s="2"/>
+      <c r="AU46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>482</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="G47" s="11"/>
       <c r="H47" s="2" t="n">
         <f aca="false">IF(F47&lt;&gt;CONCATENATE("Aux",E47),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="P47" s="28" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q47" s="30" t="s">
-        <v>121</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="11"/>
       <c r="R47" s="29" t="n">
         <f aca="false">IF(P47&lt;&gt;CONCATENATE("Grp",O47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="29"/>
-      <c r="Y47" s="26" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z47" s="28" t="s">
-        <v>484</v>
-      </c>
-      <c r="AA47" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="V47" s="0"/>
+      <c r="AA47" s="11"/>
       <c r="AB47" s="2" t="n">
         <f aca="false">IF(Z47&lt;&gt;CONCATENATE("Mtx",Y47),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="2"/>
+      <c r="AF47" s="0"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="3"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="3"/>
+      <c r="AS47" s="2"/>
+      <c r="AU47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="26" t="n">
-        <v>47</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>485</v>
-      </c>
-      <c r="G48" s="30" t="s">
-        <v>241</v>
-      </c>
+      <c r="G48" s="11"/>
       <c r="H48" s="2" t="n">
         <f aca="false">IF(F48&lt;&gt;CONCATENATE("Aux",E48),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="26" t="n">
-        <v>47</v>
-      </c>
-      <c r="P48" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q48" s="30" t="s">
-        <v>241</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="11"/>
       <c r="R48" s="29" t="n">
         <f aca="false">IF(P48&lt;&gt;CONCATENATE("Grp",O48),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="29"/>
-      <c r="Y48" s="26" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z48" s="28" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA48" s="30" t="s">
-        <v>241</v>
-      </c>
+      <c r="V48" s="0"/>
+      <c r="AA48" s="11"/>
       <c r="AB48" s="2" t="n">
         <f aca="false">IF(Z48&lt;&gt;CONCATENATE("Mtx",Y48),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" s="2"/>
+      <c r="AF48" s="0"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="3"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="3"/>
+      <c r="AS48" s="2"/>
+      <c r="AU48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>488</v>
-      </c>
-      <c r="G49" s="30" t="s">
-        <v>252</v>
-      </c>
+      <c r="G49" s="11"/>
       <c r="H49" s="2" t="n">
         <f aca="false">IF(F49&lt;&gt;CONCATENATE("Aux",E49),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="P49" s="28" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q49" s="30" t="s">
-        <v>252</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="11"/>
       <c r="R49" s="29" t="n">
         <f aca="false">IF(P49&lt;&gt;CONCATENATE("Grp",O49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="29"/>
-      <c r="Y49" s="26" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z49" s="28" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA49" s="30" t="s">
-        <v>252</v>
-      </c>
+      <c r="V49" s="0"/>
+      <c r="AA49" s="11"/>
       <c r="AB49" s="2" t="n">
         <f aca="false">IF(Z49&lt;&gt;CONCATENATE("Mtx",Y49),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" s="2"/>
+      <c r="AF49" s="0"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="3"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="3"/>
+      <c r="AS49" s="2"/>
+      <c r="AU49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E50" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="G50" s="11"/>
       <c r="H50" s="2" t="n">
         <f aca="false">IF(F50&lt;&gt;CONCATENATE("Aux",E50),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="P50" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q50" s="30" t="s">
-        <v>49</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="11"/>
       <c r="R50" s="29" t="n">
         <f aca="false">IF(P50&lt;&gt;CONCATENATE("Grp",O50),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="29"/>
-      <c r="Y50" s="26" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z50" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA50" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="V50" s="0"/>
+      <c r="AA50" s="11"/>
       <c r="AB50" s="2" t="n">
         <f aca="false">IF(Z50&lt;&gt;CONCATENATE("Mtx",Y50),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" s="2"/>
+      <c r="AF50" s="0"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="3"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="3"/>
+      <c r="AS50" s="2"/>
+      <c r="AU50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="G51" s="11"/>
       <c r="H51" s="2" t="n">
         <f aca="false">IF(F51&lt;&gt;CONCATENATE("Aux",E51),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="P51" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q51" s="30" t="s">
-        <v>67</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="11"/>
       <c r="R51" s="29" t="n">
         <f aca="false">IF(P51&lt;&gt;CONCATENATE("Grp",O51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="29"/>
-      <c r="Y51" s="26" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z51" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="AA51" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="V51" s="0"/>
+      <c r="AA51" s="11"/>
       <c r="AB51" s="2" t="n">
         <f aca="false">IF(Z51&lt;&gt;CONCATENATE("Mtx",Y51),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="2"/>
+      <c r="AF51" s="0"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="3"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="3"/>
+      <c r="AS51" s="2"/>
+      <c r="AU51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="26" t="n">
-        <v>51</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>80</v>
-      </c>
       <c r="H52" s="2" t="n">
         <f aca="false">IF(F52&lt;&gt;CONCATENATE("Aux",E52),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="26" t="n">
-        <v>51</v>
-      </c>
-      <c r="P52" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q52" s="30" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="R52" s="29" t="n">
         <f aca="false">IF(P52&lt;&gt;CONCATENATE("Grp",O52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="29"/>
-      <c r="Y52" s="26" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z52" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA52" s="30" t="s">
-        <v>80</v>
-      </c>
+      <c r="V52" s="0"/>
+      <c r="AA52" s="0"/>
       <c r="AB52" s="2" t="n">
         <f aca="false">IF(Z52&lt;&gt;CONCATENATE("Mtx",Y52),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" s="2"/>
+      <c r="AF52" s="0"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="3"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="3"/>
+      <c r="AS52" s="2"/>
+      <c r="AU52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>93</v>
-      </c>
       <c r="H53" s="2" t="n">
         <f aca="false">IF(F53&lt;&gt;CONCATENATE("Aux",E53),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="P53" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q53" s="30" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="R53" s="29" t="n">
         <f aca="false">IF(P53&lt;&gt;CONCATENATE("Grp",O53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="29"/>
-      <c r="Y53" s="26" t="n">
-        <v>52</v>
-      </c>
-      <c r="Z53" s="28" t="s">
-        <v>502</v>
-      </c>
-      <c r="AA53" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="V53" s="0"/>
+      <c r="AA53" s="0"/>
       <c r="AB53" s="2" t="n">
         <f aca="false">IF(Z53&lt;&gt;CONCATENATE("Mtx",Y53),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="2"/>
+      <c r="AF53" s="0"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="3"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="3"/>
+      <c r="AS53" s="2"/>
+      <c r="AU53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E54" s="26" t="n">
-        <v>53</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>503</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>106</v>
-      </c>
       <c r="H54" s="2" t="n">
         <f aca="false">IF(F54&lt;&gt;CONCATENATE("Aux",E54),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="26" t="n">
-        <v>53</v>
-      </c>
-      <c r="P54" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q54" s="30" t="s">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="R54" s="29" t="n">
         <f aca="false">IF(P54&lt;&gt;CONCATENATE("Grp",O54),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" s="29"/>
-      <c r="Y54" s="26" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z54" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA54" s="30" t="s">
-        <v>106</v>
-      </c>
+      <c r="V54" s="0"/>
+      <c r="AA54" s="0"/>
       <c r="AB54" s="2" t="n">
         <f aca="false">IF(Z54&lt;&gt;CONCATENATE("Mtx",Y54),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" s="2"/>
+      <c r="AF54" s="0"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="3"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="3"/>
+      <c r="AS54" s="2"/>
+      <c r="AU54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="26" t="n">
-        <v>54</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>121</v>
-      </c>
       <c r="H55" s="2" t="n">
         <f aca="false">IF(F55&lt;&gt;CONCATENATE("Aux",E55),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="26" t="n">
-        <v>54</v>
-      </c>
-      <c r="P55" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="R55" s="29" t="n">
         <f aca="false">IF(P55&lt;&gt;CONCATENATE("Grp",O55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="29"/>
-      <c r="Y55" s="26" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z55" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="AA55" s="30" t="s">
-        <v>121</v>
-      </c>
+      <c r="V55" s="0"/>
+      <c r="AA55" s="0"/>
       <c r="AB55" s="2" t="n">
         <f aca="false">IF(Z55&lt;&gt;CONCATENATE("Mtx",Y55),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="2"/>
+      <c r="AF55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>509</v>
-      </c>
-      <c r="G56" s="30" t="s">
-        <v>241</v>
-      </c>
       <c r="H56" s="2" t="n">
         <f aca="false">IF(F56&lt;&gt;CONCATENATE("Aux",E56),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="P56" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q56" s="30" t="s">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="R56" s="29" t="n">
         <f aca="false">IF(P56&lt;&gt;CONCATENATE("Grp",O56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="29"/>
-      <c r="Y56" s="26" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z56" s="28" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA56" s="30" t="s">
-        <v>241</v>
-      </c>
+      <c r="V56" s="0"/>
+      <c r="AA56" s="0"/>
       <c r="AB56" s="2" t="n">
         <f aca="false">IF(Z56&lt;&gt;CONCATENATE("Mtx",Y56),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" s="2"/>
+      <c r="AF56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>252</v>
-      </c>
       <c r="H57" s="2" t="n">
         <f aca="false">IF(F57&lt;&gt;CONCATENATE("Aux",E57),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="P57" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q57" s="30" t="s">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="R57" s="29" t="n">
         <f aca="false">IF(P57&lt;&gt;CONCATENATE("Grp",O57),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="29"/>
-      <c r="Y57" s="26" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z57" s="28" t="s">
-        <v>514</v>
-      </c>
-      <c r="AA57" s="30" t="s">
-        <v>252</v>
-      </c>
+      <c r="V57" s="0"/>
+      <c r="AA57" s="0"/>
       <c r="AB57" s="2" t="n">
         <f aca="false">IF(Z57&lt;&gt;CONCATENATE("Mtx",Y57),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="2"/>
+      <c r="AF57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="26" t="n">
-        <v>57</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>515</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>49</v>
-      </c>
       <c r="H58" s="2" t="n">
         <f aca="false">IF(F58&lt;&gt;CONCATENATE("Aux",E58),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="26" t="n">
-        <v>57</v>
-      </c>
-      <c r="P58" s="28" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q58" s="30" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R58" s="29" t="n">
         <f aca="false">IF(P58&lt;&gt;CONCATENATE("Grp",O58),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S58" s="29"/>
-      <c r="Y58" s="26" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z58" s="28" t="s">
-        <v>517</v>
-      </c>
-      <c r="AA58" s="30" t="s">
-        <v>49</v>
-      </c>
+      <c r="V58" s="0"/>
+      <c r="AA58" s="0"/>
       <c r="AB58" s="2" t="n">
         <f aca="false">IF(Z58&lt;&gt;CONCATENATE("Mtx",Y58),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" s="2"/>
+      <c r="AF58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="26" t="n">
-        <v>58</v>
-      </c>
-      <c r="F59" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>67</v>
-      </c>
       <c r="H59" s="2" t="n">
         <f aca="false">IF(F59&lt;&gt;CONCATENATE("Aux",E59),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="26" t="n">
-        <v>58</v>
-      </c>
-      <c r="P59" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q59" s="30" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="R59" s="29" t="n">
         <f aca="false">IF(P59&lt;&gt;CONCATENATE("Grp",O59),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="29"/>
-      <c r="Y59" s="26" t="n">
-        <v>58</v>
-      </c>
-      <c r="Z59" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA59" s="30" t="s">
-        <v>67</v>
-      </c>
+      <c r="V59" s="0"/>
+      <c r="AA59" s="0"/>
       <c r="AB59" s="2" t="n">
         <f aca="false">IF(Z59&lt;&gt;CONCATENATE("Mtx",Y59),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59" s="2"/>
+      <c r="AF59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="26" t="n">
-        <v>59</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>80</v>
-      </c>
       <c r="H60" s="2" t="n">
         <f aca="false">IF(F60&lt;&gt;CONCATENATE("Aux",E60),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="26" t="n">
-        <v>59</v>
-      </c>
-      <c r="P60" s="28" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q60" s="30" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="R60" s="29" t="n">
         <f aca="false">IF(P60&lt;&gt;CONCATENATE("Grp",O60),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="29"/>
-      <c r="Y60" s="26" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z60" s="28" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA60" s="30" t="s">
-        <v>80</v>
-      </c>
+      <c r="V60" s="0"/>
+      <c r="AA60" s="0"/>
       <c r="AB60" s="2" t="n">
         <f aca="false">IF(Z60&lt;&gt;CONCATENATE("Mtx",Y60),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" s="2"/>
+      <c r="AF60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>93</v>
-      </c>
       <c r="H61" s="2" t="n">
         <f aca="false">IF(F61&lt;&gt;CONCATENATE("Aux",E61),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="P61" s="28" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q61" s="30" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="R61" s="29" t="n">
         <f aca="false">IF(P61&lt;&gt;CONCATENATE("Grp",O61),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S61" s="29"/>
-      <c r="Y61" s="26" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z61" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA61" s="30" t="s">
-        <v>93</v>
-      </c>
+      <c r="V61" s="0"/>
+      <c r="AA61" s="0"/>
       <c r="AB61" s="2" t="n">
         <f aca="false">IF(Z61&lt;&gt;CONCATENATE("Mtx",Y61),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="2"/>
+      <c r="AF61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="26" t="n">
-        <v>61</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>53</v>
-      </c>
       <c r="H62" s="2" t="n">
         <f aca="false">IF(F62&lt;&gt;CONCATENATE("Aux",E62),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="26" t="n">
-        <v>61</v>
-      </c>
-      <c r="P62" s="28" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q62" s="30" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="R62" s="29" t="n">
         <f aca="false">IF(P62&lt;&gt;CONCATENATE("Grp",O62),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="29"/>
-      <c r="Y62" s="26" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z62" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="AA62" s="30" t="s">
-        <v>53</v>
-      </c>
+      <c r="V62" s="0"/>
+      <c r="AA62" s="0"/>
       <c r="AB62" s="2" t="n">
         <f aca="false">IF(Z62&lt;&gt;CONCATENATE("Mtx",Y62),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="2"/>
+      <c r="AF62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="26" t="n">
-        <v>62</v>
-      </c>
-      <c r="F63" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="G63" s="30"/>
       <c r="H63" s="2" t="n">
         <f aca="false">IF(F63&lt;&gt;CONCATENATE("Aux",E63),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O63" s="26" t="n">
-        <v>62</v>
-      </c>
-      <c r="P63" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q63" s="30"/>
+        <v>1</v>
+      </c>
       <c r="R63" s="29" t="n">
         <f aca="false">IF(P63&lt;&gt;CONCATENATE("Grp",O63),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="29"/>
-      <c r="Y63" s="26" t="n">
-        <v>62</v>
-      </c>
-      <c r="Z63" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA63" s="30"/>
+      <c r="AA63" s="0"/>
       <c r="AB63" s="2" t="n">
         <f aca="false">IF(Z63&lt;&gt;CONCATENATE("Mtx",Y63),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="32"/>
-      <c r="G64" s="11"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="31"/>
-      <c r="AA64" s="31"/>
+      <c r="AA64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G65" s="11"/>
       <c r="H65" s="2" t="n">
         <f aca="false">COUNTIF(H2:H63,1)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M65" s="2" t="n">
         <f aca="false">COUNTIF(M2:M63,1)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="Q65" s="31"/>
       <c r="R65" s="2" t="n">
         <f aca="false">COUNTIF(R2:R63,1)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W65" s="2" t="n">
         <f aca="false">COUNTIF(W2:W63,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="31"/>
+        <v>11</v>
+      </c>
+      <c r="AA65" s="0"/>
       <c r="AB65" s="2" t="n">
         <f aca="false">COUNTIF(AB2:AB63,1)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AG65" s="2" t="n">
         <f aca="false">COUNTIF(AG2:AG63,1)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL65" s="2" t="n">
         <f aca="false">COUNTIF(AL2:AL63,1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM65" s="2"/>
       <c r="AQ65" s="2" t="n">
         <f aca="false">COUNTIF(AQ2:AQ63,1)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G66" s="11"/>
+      <c r="AA66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G67" s="11"/>
+      <c r="AA67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G68" s="11"/>
+      <c r="AA68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G69" s="11"/>
+      <c r="AA69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G70" s="11"/>
+      <c r="AA70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G71" s="11"/>
+      <c r="AA71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="11"/>
+      <c r="AA72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G73" s="11"/>
+      <c r="AA73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AA82" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L33 Q64:Q65 V33 AA64:AA65 AF33 G3:G25 AK3:AK15 AP3:AP15 AU3:AU15 L3:L30 Q3:Q61 V3:V30 AA3:AA61 AF3:AF30">
+  <conditionalFormatting sqref="G3:G25 AK3:AK13 AP3:AP13 AU3:AU13 L3:L21 Q3:Q41 V3:V21 AA3:AA41 AF3:AF21 AY3:AY9 BC3:BC9">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"purple"</formula>
     </cfRule>
@@ -22647,59 +21845,36 @@
       <formula>"blue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ34">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+  <conditionalFormatting sqref="C2:C17 Q2:Q51 AA2:AA51 L2:L31 V2:V31 AF2:AF31 AK2:AK23 AP2:AP23 AU2:AU23 G2:G51 AY2:AY9 BC2:BC9">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"purple"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"light blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"green"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"red"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"black"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>"blue"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25 Q2:Q63 AA2:AA63 L2:L32 V2:V32 AF2:AF32 AK2:AK17 AP2:AP17 AU2:AU17 G2:G73">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"purple"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"light blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"red"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>"black"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>"yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>"blue"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C18 G2:G26 L2:L32 Q2:Q63 V2:V32 AA2:AA63 AF2:AF32 AK2:AK17 AP2:AP17 AU2:AU17 C19:C25 G27:G73" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C17 G2:G24 L2:L31 Q2:Q51 V2:V31 AA2:AA51 AF2:AF31 AK2:AK23 AP2:AP23 AU2:AU23 G25:G51" type="list">
       <formula1>"-,blue,red,yellow,green,light blue,white,purple,black"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L33 V33 AF33 AJ34 Q64:Q65 AA64:AA65" type="list">
-      <formula1>"blue,red,yellow,green,light blue,white,purple,black"</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AY9 BC2:BC9" type="list">
+      <formula1>"-,blue,red,yellow,green,light blue,white,purple,black"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -22721,81 +21896,81 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34" t="s">
-        <v>533</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>534</v>
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>535</v>
-      </c>
-      <c r="B2" s="36" t="n">
+      <c r="A2" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="35" t="n">
         <f aca="false">Groups!R65</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C2" s="35" t="n">
         <f aca="false">Groups!W65</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="B3" s="36" t="n">
+      <c r="A3" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="35" t="n">
         <f aca="false">Groups!AL65</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="35" t="n">
         <f aca="false">Groups!AQ65</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="B4" s="36" t="n">
+      <c r="A4" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" s="35" t="n">
         <f aca="false">Groups!H65</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="35" t="n">
         <f aca="false">Groups!M65</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="B5" s="36" t="n">
+      <c r="A5" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" s="35" t="n">
         <f aca="false">Groups!AB65</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C5" s="35" t="n">
         <f aca="false">Groups!AG65</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
-        <v>539</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="A7" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22831,24 +22006,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>540</v>
+        <v>443</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>541</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>542</v>
+        <v>444</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>543</v>
+        <v>446</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>544</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/testing/AvantisChannelListTesting.xlsx
+++ b/testing/AvantisChannelListTesting.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="449">
   <si>
-    <t xml:space="preserve">Process?</t>
+    <t xml:space="preserve">Enabled</t>
   </si>
   <si>
     <t xml:space="preserve">Channel</t>
@@ -21982,7 +21982,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22008,7 +22008,7 @@
         <v>447</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>448</v>
